--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.shirokiy\DTS\Python\Calc_Tanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263F273-EF0F-494F-A634-E442C816265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F1860-6798-483A-9F51-A19F25B2455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="S" sheetId="2" r:id="rId2"/>
+    <sheet name="Result" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -526,7 +527,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,4 +992,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB788815-F521-43BA-9A21-A7925F39F2A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.shirokiy\DTS\Python\Calc_Tanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F1860-6798-483A-9F51-A19F25B2455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20FC1C-410D-46FD-8286-ED6311D87D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28890" yWindow="0" windowWidth="28710" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Radial</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Axial</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Activity, A, Bq</t>
+  </si>
+  <si>
+    <t>Task / Number of tanks</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,19 +214,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,13 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,79 +512,79 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="7" width="21.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="13"/>
-    <col min="10" max="10" width="10.85546875" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="10">
+      <c r="L1" s="7">
         <f>COUNTA(F$2:F$21)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.75</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>0.6</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>0.3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>200</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>4.5</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -608,22 +593,25 @@
       <c r="I2" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>1.93</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>7400000000</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="8">
         <f>IF(ISBLANK(E2), "", VLOOKUP(E2, S!$A$2:$B$4, 2, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -632,13 +620,13 @@
       <c r="I3" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2">
         <v>0.35199999999999998</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>92000000</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="8">
         <f>IF(ISBLANK(E3), "", VLOOKUP(E3, S!$A$2:$B$4, 2, 0))</f>
         <v>2</v>
       </c>
@@ -648,13 +636,13 @@
       <c r="I4" s="2">
         <v>1.3457699999999999</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="2">
         <v>4.7499999999999999E-3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>92000000</v>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="8" t="str">
         <f>IF(ISBLANK(E4), "", VLOOKUP(E4, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -666,13 +654,13 @@
       <c r="I5" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>1.7782</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="L5" s="8" t="str">
         <f>IF(ISBLANK(E5), "", VLOOKUP(E5, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -682,13 +670,13 @@
       <c r="I6" s="2">
         <v>1.07734</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="2">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="8" t="str">
         <f>IF(ISBLANK(E6), "", VLOOKUP(E6, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -698,13 +686,13 @@
       <c r="I7" s="2">
         <v>1.8831599999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="2">
         <v>1.3699999999999999E-3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="8" t="str">
         <f>IF(ISBLANK(E7), "", VLOOKUP(E7, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -714,13 +702,13 @@
       <c r="I8" s="2">
         <v>1.26108</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="2">
         <v>9.4300000000000004E-4</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="8" t="str">
         <f>IF(ISBLANK(E8), "", VLOOKUP(E8, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -730,13 +718,13 @@
       <c r="I9" s="2">
         <v>0.80583000000000005</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="2">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="8" t="str">
         <f>IF(ISBLANK(E9), "", VLOOKUP(E9, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -748,13 +736,13 @@
       <c r="I10" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="2">
         <v>0.45479999999999998</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="L10" s="8" t="str">
         <f>IF(ISBLANK(E10), "", VLOOKUP(E10, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -764,13 +752,13 @@
       <c r="I11" s="2">
         <v>0.90915000000000001</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="2">
         <v>0.99039999999999995</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="L11" s="8" t="str">
         <f>IF(ISBLANK(E11), "", VLOOKUP(E11, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -780,13 +768,13 @@
       <c r="I12" s="2">
         <v>1.7130000000000001</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="2">
         <v>7.45E-3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="L12" s="8" t="str">
         <f>IF(ISBLANK(E12), "", VLOOKUP(E12, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -796,13 +784,13 @@
       <c r="I13" s="2">
         <v>1.7444999999999999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="2">
         <v>1.23E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L13" s="12" t="str">
+      <c r="L13" s="8" t="str">
         <f>IF(ISBLANK(E13), "", VLOOKUP(E13, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -814,13 +802,13 @@
       <c r="I14" s="2">
         <v>0.140511</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="2">
         <v>0.89</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>5920000000</v>
       </c>
-      <c r="L14" s="12" t="str">
+      <c r="L14" s="8" t="str">
         <f>IF(ISBLANK(E14), "", VLOOKUP(E14, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -832,13 +820,13 @@
       <c r="I15" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>4340000000</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="8" t="str">
         <f>IF(ISBLANK(E15), "", VLOOKUP(E15, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -848,13 +836,13 @@
       <c r="I16" s="2">
         <v>0.15897</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="2">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>4340000000</v>
       </c>
-      <c r="L16" s="12" t="str">
+      <c r="L16" s="8" t="str">
         <f>IF(ISBLANK(E16), "", VLOOKUP(E16, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -866,13 +854,13 @@
       <c r="I17" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="2">
         <v>0.22689999999999999</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L17" s="12" t="str">
+      <c r="L17" s="8" t="str">
         <f>IF(ISBLANK(E17), "", VLOOKUP(E17, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -882,13 +870,13 @@
       <c r="I18" s="2">
         <v>0.60272999999999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="2">
         <v>0.629</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(ISBLANK(E18), "", VLOOKUP(E18, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -898,13 +886,13 @@
       <c r="I19" s="2">
         <v>1.69096</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="2">
         <v>0.1115</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L19" s="12" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(ISBLANK(E19), "", VLOOKUP(E19, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -914,13 +902,13 @@
       <c r="I20" s="2">
         <v>0.72277999999999998</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="2">
         <v>0.1036</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L20" s="12" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(ISBLANK(E20), "", VLOOKUP(E20, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -930,13 +918,13 @@
       <c r="I21" s="3">
         <v>1.5093599999999998</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="3">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="6">
         <v>7980000000</v>
       </c>
-      <c r="L21" s="12" t="str">
+      <c r="L21" s="8" t="str">
         <f>IF(ISBLANK(E21), "", VLOOKUP(E21, S!$A$2:$B$4, 2, 0))</f>
         <v/>
       </c>
@@ -962,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.shirokiy\DTS\Python\Calc_Tanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20FC1C-410D-46FD-8286-ED6311D87D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B342A-5C67-46C1-8638-2137C5C5B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28890" yWindow="0" windowWidth="28710" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="S" sheetId="2" r:id="rId2"/>
-    <sheet name="Result" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="S" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Radionuclide</t>
   </si>
@@ -107,6 +108,27 @@
   </si>
   <si>
     <t>Task / Number of tanks</t>
+  </si>
+  <si>
+    <t>W-188</t>
+  </si>
+  <si>
+    <t>Re-188</t>
+  </si>
+  <si>
+    <t>C-11</t>
+  </si>
+  <si>
+    <t>N-13</t>
+  </si>
+  <si>
+    <t>Lu-177</t>
+  </si>
+  <si>
+    <t>Lu-177m</t>
+  </si>
+  <si>
+    <t>Ac-225</t>
   </si>
 </sst>
 </file>
@@ -138,12 +160,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -203,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -228,6 +256,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +557,12 @@
     <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="8"/>
     <col min="10" max="10" width="10.85546875" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="11" max="11" width="9.140625" style="8" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -564,10 +600,30 @@
         <f>COUNTA(F$2:F$21)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="8">
+        <f>IF(ISBLANK(E2), "", VLOOKUP(E2, S!$A$2:$B$4, 2, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="N1" s="8">
+        <f>IF(ISBLANK(E3), "", VLOOKUP(E3, S!$A$2:$B$4, 2, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="O1" s="8" t="str">
+        <f>IF(ISBLANK(E4), "", VLOOKUP(E4, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="P1" s="8" t="str">
+        <f>IF(ISBLANK(E5), "", VLOOKUP(E5, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="Q1" s="8" t="str">
+        <f>IF(ISBLANK(E6), "", VLOOKUP(E6, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8">
         <v>0.75</v>
@@ -599,13 +655,10 @@
       <c r="K2" s="4">
         <v>7400000000</v>
       </c>
-      <c r="L2" s="8">
-        <f>IF(ISBLANK(E2), "", VLOOKUP(E2, S!$A$2:$B$4, 2, 0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
+        <f ca="1">_xlfn.SHEETS()-1</f>
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -626,12 +679,8 @@
       <c r="K3" s="5">
         <v>92000000</v>
       </c>
-      <c r="L3" s="8">
-        <f>IF(ISBLANK(E3), "", VLOOKUP(E3, S!$A$2:$B$4, 2, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>1.3457699999999999</v>
@@ -642,12 +691,8 @@
       <c r="K4" s="5">
         <v>92000000</v>
       </c>
-      <c r="L4" s="8" t="str">
-        <f>IF(ISBLANK(E4), "", VLOOKUP(E4, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
@@ -660,12 +705,8 @@
       <c r="K5" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L5" s="8" t="str">
-        <f>IF(ISBLANK(E5), "", VLOOKUP(E5, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1.07734</v>
@@ -676,12 +717,8 @@
       <c r="K6" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L6" s="8" t="str">
-        <f>IF(ISBLANK(E6), "", VLOOKUP(E6, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1.8831599999999999</v>
@@ -692,12 +729,8 @@
       <c r="K7" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L7" s="8" t="str">
-        <f>IF(ISBLANK(E7), "", VLOOKUP(E7, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1.26108</v>
@@ -708,12 +741,8 @@
       <c r="K8" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L8" s="8" t="str">
-        <f>IF(ISBLANK(E8), "", VLOOKUP(E8, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>0.80583000000000005</v>
@@ -724,12 +753,8 @@
       <c r="K9" s="5">
         <v>2310000000</v>
       </c>
-      <c r="L9" s="8" t="str">
-        <f>IF(ISBLANK(E9), "", VLOOKUP(E9, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
@@ -742,12 +767,8 @@
       <c r="K10" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L10" s="8" t="str">
-        <f>IF(ISBLANK(E10), "", VLOOKUP(E10, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>0.90915000000000001</v>
@@ -758,12 +779,8 @@
       <c r="K11" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L11" s="8" t="str">
-        <f>IF(ISBLANK(E11), "", VLOOKUP(E11, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1.7130000000000001</v>
@@ -774,12 +791,8 @@
       <c r="K12" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L12" s="8" t="str">
-        <f>IF(ISBLANK(E12), "", VLOOKUP(E12, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1.7444999999999999</v>
@@ -790,12 +803,8 @@
       <c r="K13" s="5">
         <v>1150000000</v>
       </c>
-      <c r="L13" s="8" t="str">
-        <f>IF(ISBLANK(E13), "", VLOOKUP(E13, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
@@ -808,12 +817,8 @@
       <c r="K14" s="5">
         <v>5920000000</v>
       </c>
-      <c r="L14" s="8" t="str">
-        <f>IF(ISBLANK(E14), "", VLOOKUP(E14, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
@@ -826,12 +831,8 @@
       <c r="K15" s="5">
         <v>4340000000</v>
       </c>
-      <c r="L15" s="8" t="str">
-        <f>IF(ISBLANK(E15), "", VLOOKUP(E15, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>0.15897</v>
@@ -842,12 +843,8 @@
       <c r="K16" s="5">
         <v>4340000000</v>
       </c>
-      <c r="L16" s="8" t="str">
-        <f>IF(ISBLANK(E16), "", VLOOKUP(E16, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,12 +857,8 @@
       <c r="K17" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L17" s="8" t="str">
-        <f>IF(ISBLANK(E17), "", VLOOKUP(E17, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>0.60272999999999999</v>
@@ -876,12 +869,8 @@
       <c r="K18" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L18" s="8" t="str">
-        <f>IF(ISBLANK(E18), "", VLOOKUP(E18, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>1.69096</v>
@@ -892,12 +881,8 @@
       <c r="K19" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L19" s="8" t="str">
-        <f>IF(ISBLANK(E19), "", VLOOKUP(E19, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>0.72277999999999998</v>
@@ -908,12 +893,8 @@
       <c r="K20" s="5">
         <v>7980000000</v>
       </c>
-      <c r="L20" s="8" t="str">
-        <f>IF(ISBLANK(E20), "", VLOOKUP(E20, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="3"/>
       <c r="I21" s="3">
         <v>1.5093599999999998</v>
@@ -923,10 +904,6 @@
       </c>
       <c r="K21" s="6">
         <v>7980000000</v>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f>IF(ISBLANK(E21), "", VLOOKUP(E21, S!$A$2:$B$4, 2, 0))</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -936,11 +913,757 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FF7E44-0E44-423F-AC52-07514D350F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43B20E2-A153-42D3-BD1A-B1D6414CBB08}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="16" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="7">
+        <f>COUNTA(F$2:F$14)</f>
+        <v>2</v>
+      </c>
+      <c r="M1" s="7">
+        <f>IF(ISBLANK(E2), "", VLOOKUP(E2, S!$A$2:$B$4, 2, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="N1" s="8">
+        <f>IF(ISBLANK(E3), "", VLOOKUP(E3, S!$A$2:$B$4, 2, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="O1" s="8" t="str">
+        <f>IF(ISBLANK(E4), "", VLOOKUP(E4, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="P1" s="8" t="str">
+        <f>IF(ISBLANK(E5), "", VLOOKUP(E5, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="Q1" s="8" t="str">
+        <f>IF(ISBLANK(E6), "", VLOOKUP(E6, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>200</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(7.5^2+3^2)^0.5</f>
+        <v>8.0777472107017552</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1.7782</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7400000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="9">
+        <v>1.07734</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7400000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="9">
+        <v>1.8831600000000002</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7400000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="9">
+        <v>1.26108</v>
+      </c>
+      <c r="J5" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7400000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="9">
+        <v>0.80583000000000005</v>
+      </c>
+      <c r="J6" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>7400000000</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f>IF(ISBLANK(E6), "", VLOOKUP(E6,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.29067999999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f>IF(ISBLANK(E7), "", VLOOKUP(E7,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="9">
+        <v>0.22706999999999999</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f>IF(ISBLANK(E8), "", VLOOKUP(E8,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="9">
+        <v>0.20785000000000001</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f>IF(ISBLANK(E9), "", VLOOKUP(E9,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.15503999999999998</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f>IF(ISBLANK(E10), "", VLOOKUP(E10,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="9">
+        <v>0.63302999999999998</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.37E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f>IF(ISBLANK(E11), "", VLOOKUP(E11,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f>IF(ISBLANK(E12), "", VLOOKUP(E12,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="9">
+        <v>0.93134000000000006</v>
+      </c>
+      <c r="J13" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f>IF(ISBLANK(E13), "", VLOOKUP(E13,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="9">
+        <v>0.82947000000000004</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>90000000000</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f>IF(ISBLANK(E14), "", VLOOKUP(E14,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152DDC29-2213-4BC7-AA57-DCBD3D3391D6}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="16" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="7">
+        <f>COUNTA(F$2:F$11)</f>
+        <v>2</v>
+      </c>
+      <c r="M1" s="7">
+        <f>IF(ISBLANK(E2), "", VLOOKUP(E2, S!$A$2:$B$4, 2, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="N1" s="8">
+        <f>IF(ISBLANK(E3), "", VLOOKUP(E3, S!$A$2:$B$4, 2, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="O1" s="8" t="str">
+        <f>IF(ISBLANK(E4), "", VLOOKUP(E4, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="P1" s="8" t="e">
+        <f>IF(ISBLANK(#REF!), "", VLOOKUP(#REF!, S!$A$2:$B$4, 2, 0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q1" s="8" t="str">
+        <f>IF(ISBLANK(E5), "", VLOOKUP(E5, S!$A$2:$B$4, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>200</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(7.5^2+6^2)^0.5</f>
+        <v>9.6046863561492728</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1.9954000000000001</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.996</v>
+      </c>
+      <c r="K3" s="5">
+        <v>80000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.9346000000000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>92500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="K5" s="5">
+        <v>74000000000</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>IF(ISBLANK(E5), "", VLOOKUP(E5,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="9">
+        <v>1.3457699999999999</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>74000000000</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f>IF(ISBLANK(E6), "", VLOOKUP(E6,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4110000000</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f>IF(ISBLANK(E7), "", VLOOKUP(E7,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="9">
+        <v>0.90915000000000001</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4110000000</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f>IF(ISBLANK(E8), "", VLOOKUP(E8,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="9">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="J9" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4110000000</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f>IF(ISBLANK(E9), "", VLOOKUP(E9,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="9">
+        <v>1.7444999999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4110000000</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f>IF(ISBLANK(E10), "", VLOOKUP(E10,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.20837</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.1041</v>
+      </c>
+      <c r="K11" s="5">
+        <v>370000000000</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f>IF(ISBLANK(E11), "", VLOOKUP(E11,#REF!, 2, 0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="9">
+        <v>0.11295000000000001</v>
+      </c>
+      <c r="J12" s="10">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>370000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.20837</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="K13" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="9">
+        <v>0.22847999999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="K14" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+      <c r="I15" s="9">
+        <v>0.3785</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.2273</v>
+      </c>
+      <c r="K15" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="9">
+        <v>0.41854000000000002</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="9">
+        <v>0.11295000000000001</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+      <c r="I18" s="9">
+        <v>0.41366000000000003</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K18" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+      <c r="I19" s="9">
+        <v>0.31901999999999997</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+      <c r="I20" s="9">
+        <v>0.12162000000000001</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1.43E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+      <c r="I21" s="9">
+        <v>0.17186000000000001</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1.09E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+      <c r="I22" s="9">
+        <v>0.14715999999999999</v>
+      </c>
+      <c r="J22" s="10">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+      <c r="I23" s="9">
+        <v>0.26877999999999996</v>
+      </c>
+      <c r="J23" s="10">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>444000000</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="9">
+        <v>9.98E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4500000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904C2310-FDEF-4C1D-B61C-993D20EAAACB}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,19 +1703,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB788815-F521-43BA-9A21-A7925F39F2A0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.shirokiy\DTS\Python\Calc_Tanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B342A-5C67-46C1-8638-2137C5C5B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B5276E-E6F1-4D6A-BE1A-A08D859E0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="0" windowWidth="28710" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Tank1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tank2" sheetId="4" r:id="rId2"/>
+    <sheet name="Tank3" sheetId="6" r:id="rId3"/>
     <sheet name="S" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,9 +258,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1018,7 @@
       <c r="I2" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>1.7782</v>
       </c>
       <c r="K2" s="5">
@@ -1039,7 +1036,7 @@
       <c r="I3" s="9">
         <v>1.07734</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="K3" s="5">
@@ -1051,7 +1048,7 @@
       <c r="I4" s="9">
         <v>1.8831600000000002</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>1.4E-3</v>
       </c>
       <c r="K4" s="5">
@@ -1063,7 +1060,7 @@
       <c r="I5" s="9">
         <v>1.26108</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="K5" s="5">
@@ -1075,7 +1072,7 @@
       <c r="I6" s="9">
         <v>0.80583000000000005</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="K6" s="5">
@@ -1093,7 +1090,7 @@
       <c r="I7" s="9">
         <v>0.29067999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="K7" s="5">
@@ -1109,7 +1106,7 @@
       <c r="I8" s="9">
         <v>0.22706999999999999</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="K8" s="5">
@@ -1125,7 +1122,7 @@
       <c r="I9" s="9">
         <v>0.20785000000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1E-4</v>
       </c>
       <c r="K9" s="5">
@@ -1143,7 +1140,7 @@
       <c r="I10" s="9">
         <v>0.15503999999999998</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>0.15490000000000001</v>
       </c>
       <c r="K10" s="5">
@@ -1159,7 +1156,7 @@
       <c r="I11" s="9">
         <v>0.63302999999999998</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>1.37E-2</v>
       </c>
       <c r="K11" s="5">
@@ -1175,7 +1172,7 @@
       <c r="I12" s="9">
         <v>0.47799999999999998</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="K12" s="5">
@@ -1191,7 +1188,7 @@
       <c r="I13" s="9">
         <v>0.93134000000000006</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K13" s="5">
@@ -1207,7 +1204,7 @@
       <c r="I14" s="9">
         <v>0.82947000000000004</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="K14" s="5">
@@ -1228,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152DDC29-2213-4BC7-AA57-DCBD3D3391D6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1330,7 @@
       <c r="I2" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>1.9954000000000001</v>
       </c>
       <c r="K2" s="5">
@@ -1353,7 +1350,7 @@
       <c r="I3" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>1.996</v>
       </c>
       <c r="K3" s="5">
@@ -1367,7 +1364,7 @@
       <c r="I4" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>1.9346000000000001</v>
       </c>
       <c r="K4" s="5">
@@ -1381,7 +1378,7 @@
       <c r="I5" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>0.35199999999999998</v>
       </c>
       <c r="K5" s="5">
@@ -1397,7 +1394,7 @@
       <c r="I6" s="9">
         <v>1.3457699999999999</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="K6" s="5">
@@ -1415,7 +1412,7 @@
       <c r="I7" s="9">
         <v>0.51100000000000001</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>0.45479999999999998</v>
       </c>
       <c r="K7" s="5">
@@ -1431,7 +1428,7 @@
       <c r="I8" s="9">
         <v>0.90915000000000001</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>0.99039999999999995</v>
       </c>
       <c r="K8" s="5">
@@ -1447,7 +1444,7 @@
       <c r="I9" s="9">
         <v>1.7130000000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="K9" s="5">
@@ -1463,7 +1460,7 @@
       <c r="I10" s="9">
         <v>1.7444999999999999</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="K10" s="5">
@@ -1481,7 +1478,7 @@
       <c r="I11" s="9">
         <v>0.20837</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>0.1041</v>
       </c>
       <c r="K11" s="5">
@@ -1497,7 +1494,7 @@
       <c r="I12" s="9">
         <v>0.11295000000000001</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="K12" s="5">
@@ -1511,7 +1508,7 @@
       <c r="I13" s="9">
         <v>0.20837</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>0.42820000000000003</v>
       </c>
       <c r="K13" s="5">
@@ -1523,7 +1520,7 @@
       <c r="I14" s="9">
         <v>0.22847999999999999</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>0.27750000000000002</v>
       </c>
       <c r="K14" s="5">
@@ -1535,7 +1532,7 @@
       <c r="I15" s="9">
         <v>0.3785</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>0.2273</v>
       </c>
       <c r="K15" s="5">
@@ -1547,7 +1544,7 @@
       <c r="I16" s="9">
         <v>0.41854000000000002</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>0.16789999999999999</v>
       </c>
       <c r="K16" s="5">
@@ -1559,7 +1556,7 @@
       <c r="I17" s="9">
         <v>0.11295000000000001</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>0.16539999999999999</v>
       </c>
       <c r="K17" s="5">
@@ -1571,7 +1568,7 @@
       <c r="I18" s="9">
         <v>0.41366000000000003</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>0.04</v>
       </c>
       <c r="K18" s="5">
@@ -1583,7 +1580,7 @@
       <c r="I19" s="9">
         <v>0.31901999999999997</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>2.3900000000000001E-2</v>
       </c>
       <c r="K19" s="5">
@@ -1595,7 +1592,7 @@
       <c r="I20" s="9">
         <v>0.12162000000000001</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>1.43E-2</v>
       </c>
       <c r="K20" s="5">
@@ -1607,7 +1604,7 @@
       <c r="I21" s="9">
         <v>0.17186000000000001</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>1.09E-2</v>
       </c>
       <c r="K21" s="5">
@@ -1619,7 +1616,7 @@
       <c r="I22" s="9">
         <v>0.14715999999999999</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="K22" s="5">
@@ -1631,7 +1628,7 @@
       <c r="I23" s="9">
         <v>0.26877999999999996</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="K23" s="5">
@@ -1645,7 +1642,7 @@
       <c r="I24" s="9">
         <v>9.98E-2</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="K24" s="5">
